--- a/qa/06.规范模板/GM指令.xlsx
+++ b/qa/06.规范模板/GM指令.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\06.规范模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>目录</t>
   </si>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改玩家金券数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,41 +70,13 @@
     <t>修改角色等级</t>
   </si>
   <si>
-    <t>角色等级+10级</t>
-  </si>
-  <si>
-    <t>角色等级-10级</t>
-  </si>
-  <si>
     <t>角色等级=10级</t>
   </si>
   <si>
-    <t>gm exp[操作符]数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改角色经验值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经验+10级</t>
-  </si>
-  <si>
-    <t>经验-10级</t>
-  </si>
-  <si>
-    <t>经验=10级</t>
-  </si>
-  <si>
-    <t>gm exp+10</t>
-  </si>
-  <si>
-    <t>gm exp-10</t>
-  </si>
-  <si>
-    <t>gm exp=10</t>
-  </si>
-  <si>
     <t>添加道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +110,6 @@
   </si>
   <si>
     <t>例如：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm clearbag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,22 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>receiverID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm sys [内容] [数量]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例：gm sys 发送走马灯和公告 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">           该命令会同时触发走马灯与系统公告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,22 +181,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm questset 任务id (1|0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：gm questset 905 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清空当前角色所有已完成的任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm questclear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以下指令执行后，需要退出角色重新登录才能生效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,14 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为角色添加具体任务的指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该命令可以为角色添加任何任务，包括出生接取的第一个任务；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增GM指令需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,66 +201,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm lv[操作符]等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm lv+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm lv-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm lv=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm coin[操作符]数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm coin+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm coin-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gm coin=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm gold[操作符]数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm gold+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm gold-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm gold=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm tili[操作符]数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm tili+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm tili-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gm tili=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,21 +213,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm item[操作符]ID 数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm item+quest_0001 5</t>
-  </si>
-  <si>
     <t>例如：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm item-quest_0001 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gm end N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,12 +225,216 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gm mail receiverID 邮件id 数量</t>
+    <t>任务设置为未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务设置为完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动刷新商店的服务器数据（不同时刷新客户端界面，只刷服务器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人物等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改宠物等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于目前宠物等级上限暂定99级，当修改宠物等级在99级内时，可以根据配表读取宠物属性，若等级在配表中不存在，则读取配表中最大等级属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人物经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改宠物经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改活力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有免费钻石和收费钻石需要区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改宠物品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改宠物进阶品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复技能点数到满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将升级技能点数恢复到满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一个指定的宠物，使用通用获得宠物接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在只有=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改宠物等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中宠物id是数据库中monster表中的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改宠物经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在只有+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petlv = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petlv [操作符] 等级 宠物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv = 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv [操作符] 等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物等级=10级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp [操作符] 数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petexp [操作符] 数量 宠物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petexp + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin [操作符] 数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold [操作符] 数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改玩家钻石数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tili [操作符] 数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade = 品质 宠物id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade = 1 3672</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet [操作符] 数量 宠物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet + 3 qingniao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item [操作符] 数量 道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item + 5 quest_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item - 5 quest_0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearbag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail receiverID 邮件id 数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailall 邮件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：mailall 1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">例如：gm mail </t>
+      <t xml:space="preserve">例如：mail </t>
     </r>
     <r>
       <rPr>
@@ -432,166 +489,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>例如：gm mailall 1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm mailall 邮件id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务设置为未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务设置为完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm quest[操作符]任务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm quest+2</t>
-  </si>
-  <si>
-    <t>gm quest-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加任务id为2的任务给玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除任务id为2的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm reshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动刷新商店的服务器数据（不同时刷新客户端界面，只刷服务器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人物等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改宠物等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于目前宠物等级上限暂定99级，当修改宠物等级在99级内时，可以根据配表读取宠物属性，若等级在配表中不存在，则读取配表中最大等级属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petlv+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petlv-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petlv=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人物经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改宠物经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petexp+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petexp-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petexp=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改活力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petlv[操作符]等级 宠物id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm petexp[操作符]数量 宠物id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果有免费钻石和收费钻石需要区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改宠物品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm grade 品质id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改宠物进阶品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm grade 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复技能点数到满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm resp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将升级技能点数恢复到满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得一个指定的宠物，使用通用获得宠物接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm pet[操作符] 宠物名称 数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gm pet+qingniao 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得宠物</t>
+    <t>questset 任务id (1|0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：questset 905 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questclear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys [内容] [数量]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：sys 发送走马灯和公告 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据程序实现修改gm指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +689,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +711,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +758,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +863,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,7 +1272,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1397,16 +1334,22 @@
         <v>42275</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="10">
+        <v>42292</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
@@ -1477,10 +1420,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:I87"/>
+  <dimension ref="A2:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1496,31 +1439,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="15"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -1533,31 +1479,23 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>13</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
@@ -1573,432 +1511,421 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="17">
         <v>3</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
+      <c r="B24" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="15" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="17">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
+      <c r="B34" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="15" t="s">
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C39" s="15" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
         <v>5</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16" t="s">
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
       <c r="C49" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="17">
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="17">
         <v>6</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
+      <c r="B53" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="18"/>
+      <c r="B55" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="16"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="15"/>
+    </row>
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="17">
+        <v>7</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="15"/>
+    </row>
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="17">
+        <v>8</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="17">
         <v>9</v>
       </c>
-      <c r="C54" s="18"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="17">
-        <v>7</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="16"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="17">
-        <v>8</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="17">
-        <v>9</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="17">
+      <c r="B78" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="17">
         <v>10</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" s="15"/>
+      <c r="B84" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>130</v>
+      <c r="B85" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="15"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +1941,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2029,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -2046,7 +1973,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -2058,7 +1985,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
@@ -2070,10 +1997,10 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -2085,7 +2012,7 @@
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2106,7 +2033,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -2147,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -2155,12 +2082,12 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -2190,7 +2117,7 @@
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2199,7 +2126,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="20" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="12"/>
@@ -2208,10 +2135,10 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -2220,7 +2147,7 @@
       <c r="A5" s="12"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2235,10 +2162,10 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2317,10 +2244,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2336,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2345,7 +2272,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="12"/>
@@ -2354,58 +2281,54 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="20" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
-      <c r="B7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="20" t="s">
-        <v>90</v>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>3</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2413,18 +2336,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>3</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>50</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2432,7 +2353,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -2440,19 +2361,11 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
@@ -2460,18 +2373,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2482,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2495,7 +2400,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2506,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -2515,7 +2420,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="12"/>
@@ -2534,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
@@ -2545,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -2560,7 +2465,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="20" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2578,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -2587,7 +2492,7 @@
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -2610,46 +2515,6 @@
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>5</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2664,22 +2529,22 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.100000000000001" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2559,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2712,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -2727,14 +2592,14 @@
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -2763,16 +2628,16 @@
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -2790,12 +2655,12 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2803,12 +2668,12 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/qa/06.规范模板/GM指令.xlsx
+++ b/qa/06.规范模板/GM指令.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35505" windowHeight="19605"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35505" windowHeight="19605" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,13 @@
     <sheet name="邮箱" sheetId="7" r:id="rId5"/>
     <sheet name="任务" sheetId="8" r:id="rId6"/>
     <sheet name="商店和商城" sheetId="9" r:id="rId7"/>
-    <sheet name="其他" sheetId="4" r:id="rId8"/>
+    <sheet name="公会" sheetId="10" r:id="rId8"/>
+    <sheet name="其他" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="系统刷新">其他!$A$23:$B$25</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
   <si>
     <t>目录</t>
   </si>
@@ -514,6 +518,74 @@
   </si>
   <si>
     <t>根据程序实现修改gm指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增公会及部分GM指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动执行游戏每日0点刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyrefresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加公会会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gadd + 玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量增加公会会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gadd + 会员个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望这个指令能够刷新所有游戏中需要在0点重置的内容，例如公会任务，公会今日贡献值，公会3日活跃度，公会赠送体力相关，副本重置，商店等内容的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量创建公会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gonghui + 公会个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置副本通关星级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set star 1|2|3 副本id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置副本是否已经通关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set pass 1|0 副本id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +761,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +836,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +950,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,8 +1041,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>237715</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1561690</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>142811</xdr:rowOff>
     </xdr:to>
@@ -1269,10 +1362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1284,41 +1377,41 @@
     <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="23"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="11"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1329,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>42275</v>
       </c>
@@ -1340,7 +1433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>42292</v>
       </c>
@@ -1351,32 +1444,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>42339</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -1413,6 +1519,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F11" location="系统刷新" display="系统刷新"/>
+    <hyperlink ref="G11" location="公会!A1" display="公会"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2555,16 +2665,74 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
@@ -2671,9 +2839,73 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="41">
+        <v>3</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="41">
+        <v>4</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="41">
+        <v>5</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/qa/06.规范模板/GM指令.xlsx
+++ b/qa/06.规范模板/GM指令.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\06.规范模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\qa\06.规范模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35505" windowHeight="19605" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="35510" windowHeight="19610" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="任务" sheetId="8" r:id="rId6"/>
     <sheet name="商店和商城" sheetId="9" r:id="rId7"/>
     <sheet name="公会" sheetId="10" r:id="rId8"/>
-    <sheet name="其他" sheetId="4" r:id="rId9"/>
+    <sheet name="PVP" sheetId="11" r:id="rId9"/>
+    <sheet name="其他" sheetId="4" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="系统刷新">其他!$A$23:$B$25</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="148">
   <si>
     <t>目录</t>
   </si>
@@ -588,6 +589,84 @@
     <t>set pass 1|0 副本id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>匹配到匹配库中的指定id玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查某个id玩家在哪个匹配库</t>
+  </si>
+  <si>
+    <t>修改匹配库人数上限</t>
+  </si>
+  <si>
+    <t>查看某个匹配库人数</t>
+  </si>
+  <si>
+    <t>直接触发随机踢人</t>
+  </si>
+  <si>
+    <t>查看某个id玩家在排行榜的排名</t>
+  </si>
+  <si>
+    <t>触发周奖励发放或者月奖励发放</t>
+  </si>
+  <si>
+    <t>这个临时改小点也行，改到每个段3人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp check id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp vs id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp show id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下信息要是数据库能实时查到的就不用GM了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pvp rank id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id是玩家id，在排行榜的返回排名，不在排行的返回-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id为玩家id，在库的返回一个能表示库的代号，不在库的返回-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个id是能代表匹配库的代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id为目标玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个待讨论，目的是测试周奖励和月奖励的发放，调时间有些麻烦，有其他测试方式也行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -597,7 +676,7 @@
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,6 +839,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -836,7 +923,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +1052,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1368,50 +1461,50 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1"/>
-    <col min="2" max="2" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="8.765625" style="1"/>
+    <col min="2" max="2" width="14.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4609375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="23"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="11"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>42275</v>
       </c>
@@ -1433,7 +1526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="10">
         <v>42292</v>
       </c>
@@ -1444,7 +1537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="10">
         <v>42339</v>
       </c>
@@ -1462,57 +1555,57 @@
       </c>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="10"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="10"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="10"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="10"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="10"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="10"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1524,6 +1617,201 @@
     <hyperlink ref="G11" location="公会!A1" display="公会"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="25.765625" customWidth="1"/>
+    <col min="3" max="3" width="21.765625" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" customWidth="1"/>
+    <col min="5" max="5" width="10.765625" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="30">
+        <v>1364176546123</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32">
+        <f>(B6/G6+8*3600)/86400+70*365+19</f>
+        <v>41358.41372827546</v>
+      </c>
+      <c r="E6" s="33">
+        <f>(B6/G6+8*3600)/86400+70*365+19</f>
+        <v>41358.41372827546</v>
+      </c>
+      <c r="G6" s="25">
+        <f>IF(LEN(B6)=13,1000,IF(LEN(B6)=12,100,IF(LEN(B6)=11,10,IF(LEN(B6)=10,1,"err"))))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="35">
+        <v>41358.413368055553</v>
+      </c>
+      <c r="D10" s="36">
+        <f>(B10-19-70*365)*86400-8*3600</f>
+        <v>1364176514.9999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="21">
+        <v>2</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="41">
+        <v>3</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="41">
+        <v>4</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="41">
+        <v>5</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1536,15 +1824,15 @@
       <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="12"/>
-    <col min="2" max="2" width="5.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="12"/>
+    <col min="1" max="1" width="8.765625" style="12"/>
+    <col min="2" max="2" width="5.3046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.765625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.765625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1553,14 +1841,14 @@
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>10</v>
@@ -1568,7 +1856,7 @@
       <c r="C4" s="15"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="15"/>
       <c r="B5" s="38" t="s">
         <v>5</v>
@@ -1578,12 +1866,12 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>6</v>
@@ -1595,7 +1883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -1603,20 +1891,20 @@
       </c>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -1624,19 +1912,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="38" t="s">
         <v>5</v>
       </c>
@@ -1645,17 +1933,17 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
@@ -1666,22 +1954,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>9</v>
@@ -1691,12 +1979,12 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
         <v>3</v>
       </c>
@@ -1704,21 +1992,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B27" s="38" t="s">
         <v>5</v>
       </c>
@@ -1727,10 +2015,10 @@
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29" s="15" t="s">
         <v>6</v>
       </c>
@@ -1741,24 +2029,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="17">
         <v>4</v>
       </c>
@@ -1766,21 +2054,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B37" s="38" t="s">
         <v>5</v>
       </c>
@@ -1789,10 +2077,10 @@
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B38" s="16"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
@@ -1803,24 +2091,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C40" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="14">
         <v>5</v>
       </c>
@@ -1829,21 +2117,21 @@
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="15"/>
       <c r="B47" s="38" t="s">
         <v>5</v>
@@ -1853,12 +2141,12 @@
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
         <v>6</v>
@@ -1867,16 +2155,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
     </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="17">
         <v>6</v>
       </c>
@@ -1884,21 +2172,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B56" s="38" t="s">
         <v>5</v>
       </c>
@@ -1907,15 +2195,15 @@
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B57" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B58" s="16"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B59" s="15" t="s">
         <v>6</v>
       </c>
@@ -1923,10 +2211,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C60" s="15"/>
     </row>
-    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="17">
         <v>7</v>
       </c>
@@ -1934,17 +2222,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B64" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B65" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B66" s="38" t="s">
         <v>5</v>
       </c>
@@ -1953,10 +2241,10 @@
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B67" s="16"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B68" s="15" t="s">
         <v>6</v>
       </c>
@@ -1964,10 +2252,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C69" s="15"/>
     </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="17">
         <v>8</v>
       </c>
@@ -1975,17 +2263,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B73" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B74" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B76" s="12" t="s">
         <v>59</v>
       </c>
@@ -1993,7 +2281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="17">
         <v>9</v>
       </c>
@@ -2001,17 +2289,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B79" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="17">
         <v>10</v>
       </c>
@@ -2019,18 +2307,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B85" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="15"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B86" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B88" s="12" t="s">
         <v>66</v>
       </c>
@@ -2054,14 +2342,14 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="13"/>
-    <col min="2" max="2" width="6.109375" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="1" width="8.765625" style="13"/>
+    <col min="2" max="2" width="6.07421875" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="8.765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2070,7 +2358,7 @@
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2080,7 +2368,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>95</v>
@@ -2092,7 +2380,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>46</v>
@@ -2104,7 +2392,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>47</v>
@@ -2118,7 +2406,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
@@ -2130,7 +2418,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -2140,7 +2428,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>41</v>
@@ -2152,7 +2440,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2162,7 +2450,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2172,14 +2460,14 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -2190,17 +2478,17 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="19"/>
       <c r="C17" s="15"/>
     </row>
@@ -2219,12 +2507,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="16384" width="8.765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
       <c r="B2" s="21" t="s">
         <v>17</v>
@@ -2233,7 +2521,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="12"/>
       <c r="B3" s="20" t="s">
         <v>48</v>
@@ -2242,7 +2530,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
         <v>18</v>
@@ -2253,7 +2541,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -2262,14 +2550,14 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>21</v>
@@ -2280,65 +2568,65 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2360,15 +2648,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="16384" width="8.765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -2379,7 +2667,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
         <v>99</v>
@@ -2388,7 +2676,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
         <v>30</v>
@@ -2399,7 +2687,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="20" t="s">
         <v>32</v>
@@ -2410,14 +2698,14 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="20" t="s">
         <v>102</v>
@@ -2426,14 +2714,14 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="21">
         <v>3</v>
       </c>
@@ -2444,7 +2732,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="20" t="s">
         <v>100</v>
@@ -2453,14 +2741,14 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>101</v>
@@ -2469,19 +2757,19 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2503,20 +2791,20 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="16384" width="8.765625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -2527,7 +2815,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
         <v>103</v>
@@ -2536,14 +2824,14 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="20">
         <v>0</v>
@@ -2554,7 +2842,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="20">
         <v>1</v>
@@ -2565,14 +2853,14 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="20" t="s">
         <v>104</v>
@@ -2581,14 +2869,14 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="21">
         <v>2</v>
       </c>
@@ -2599,7 +2887,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>105</v>
@@ -2608,18 +2896,18 @@
       <c r="D13" s="20"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -2642,9 +2930,9 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2652,7 +2940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -2674,9 +2962,9 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2684,12 +2972,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2697,12 +2985,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2710,7 +2998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -2723,195 +3011,136 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30">
-        <v>1364176546123</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32">
-        <f>(B6/G6+8*3600)/86400+70*365+19</f>
-        <v>41358.41372827546</v>
-      </c>
-      <c r="E6" s="33">
-        <f>(B6/G6+8*3600)/86400+70*365+19</f>
-        <v>41358.41372827546</v>
-      </c>
-      <c r="G6" s="25">
-        <f>IF(LEN(B6)=13,1000,IF(LEN(B6)=12,100,IF(LEN(B6)=11,10,IF(LEN(B6)=10,1,"err"))))</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
-        <v>41358.413368055553</v>
-      </c>
-      <c r="D10" s="36">
-        <f>(B10-19-70*365)*86400-8*3600</f>
-        <v>1364176514.9999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>5</v>
+      </c>
       <c r="B16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
-        <v>3</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-    </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="41">
-        <v>4</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
-        <v>5</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="46" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/qa/06.规范模板/GM指令.xlsx
+++ b/qa/06.规范模板/GM指令.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\qa\06.规范模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\06.规范模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="35510" windowHeight="19610" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35505" windowHeight="19605" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -578,18 +578,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>set star 1|2|3 副本id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置副本是否已经通关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>set pass 1|0 副本id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>匹配到匹配库中的指定id玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,6 +657,14 @@
   </si>
   <si>
     <t>这个待讨论，目的是测试周奖励和月奖励的发放，调时间有些麻烦，有其他测试方式也行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setstar 1|2|3 副本id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setpass 1|0 副本id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,50 +1461,50 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.765625" style="1"/>
-    <col min="2" max="2" width="14.3046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4609375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.765625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="23"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="11"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>42275</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>42292</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>42339</v>
       </c>
@@ -1555,57 +1555,57 @@
       </c>
       <c r="H11" s="45"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1625,21 +1625,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.765625" customWidth="1"/>
-    <col min="3" max="3" width="21.765625" customWidth="1"/>
-    <col min="4" max="4" width="13.4609375" customWidth="1"/>
-    <col min="5" max="5" width="10.765625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.765625" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -1647,17 +1647,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29" t="s">
         <v>24</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30">
         <v>1364176546123</v>
       </c>
@@ -1687,18 +1687,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="34"/>
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29" t="s">
         <v>28</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35">
         <v>41358.413368055553</v>
       </c>
@@ -1716,8 +1716,8 @@
         <v>1364176514.9999998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>2</v>
       </c>
@@ -1725,25 +1725,25 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>3</v>
       </c>
@@ -1751,31 +1751,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="43" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>4</v>
       </c>
@@ -1783,28 +1783,28 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>5</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="43" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1824,15 +1824,15 @@
       <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.765625" style="12"/>
-    <col min="2" max="2" width="5.3046875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.765625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="8.765625" style="12"/>
+    <col min="1" max="1" width="8.77734375" style="12"/>
+    <col min="2" max="2" width="5.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1841,14 +1841,14 @@
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
       <c r="C4" s="15"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="38" t="s">
         <v>5</v>
@@ -1866,12 +1866,12 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>6</v>
@@ -1883,7 +1883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
@@ -1891,20 +1891,20 @@
       </c>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -1912,19 +1912,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="38" t="s">
         <v>5</v>
       </c>
@@ -1933,17 +1933,17 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
@@ -1954,22 +1954,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="C19" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>9</v>
@@ -1979,12 +1979,12 @@
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>3</v>
       </c>
@@ -1992,21 +1992,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="38" t="s">
         <v>5</v>
       </c>
@@ -2015,10 +2015,10 @@
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
         <v>6</v>
       </c>
@@ -2029,24 +2029,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>4</v>
       </c>
@@ -2054,21 +2054,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="38" t="s">
         <v>5</v>
       </c>
@@ -2077,10 +2077,10 @@
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="16"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
@@ -2091,24 +2091,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>5</v>
       </c>
@@ -2117,21 +2117,21 @@
       </c>
       <c r="C44" s="14"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="38" t="s">
         <v>5</v>
@@ -2141,12 +2141,12 @@
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
         <v>6</v>
@@ -2155,16 +2155,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>6</v>
       </c>
@@ -2172,21 +2172,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="18"/>
       <c r="B55" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="38" t="s">
         <v>5</v>
       </c>
@@ -2195,15 +2195,15 @@
       <c r="E56" s="40"/>
       <c r="F56" s="40"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="16"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="15" t="s">
         <v>6</v>
       </c>
@@ -2211,10 +2211,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" s="15"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="17">
         <v>7</v>
       </c>
@@ -2222,17 +2222,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B65" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" s="38" t="s">
         <v>5</v>
       </c>
@@ -2241,10 +2241,10 @@
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67" s="16"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68" s="15" t="s">
         <v>6</v>
       </c>
@@ -2252,10 +2252,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" s="15"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="17">
         <v>8</v>
       </c>
@@ -2263,17 +2263,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>59</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="17">
         <v>9</v>
       </c>
@@ -2289,17 +2289,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="17">
         <v>10</v>
       </c>
@@ -2307,18 +2307,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B85" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C85" s="15"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>66</v>
       </c>
@@ -2342,14 +2342,14 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.765625" style="13"/>
-    <col min="2" max="2" width="6.07421875" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="8.765625" style="13"/>
+    <col min="1" max="1" width="8.77734375" style="13"/>
+    <col min="2" max="2" width="6.109375" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2368,7 +2368,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>95</v>
@@ -2380,7 +2380,7 @@
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>46</v>
@@ -2392,7 +2392,7 @@
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>47</v>
@@ -2406,7 +2406,7 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20" t="s">
@@ -2418,7 +2418,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -2428,7 +2428,7 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>41</v>
@@ -2440,7 +2440,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2450,7 +2450,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2460,14 +2460,14 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -2478,17 +2478,17 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="19"/>
       <c r="C17" s="15"/>
     </row>
@@ -2507,12 +2507,12 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.765625" style="13"/>
+    <col min="1" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="21" t="s">
         <v>17</v>
@@ -2521,7 +2521,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="20" t="s">
         <v>48</v>
@@ -2530,7 +2530,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
         <v>18</v>
@@ -2541,7 +2541,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20" t="s">
@@ -2550,14 +2550,14 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>21</v>
@@ -2568,65 +2568,65 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2648,15 +2648,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.765625" style="13"/>
+    <col min="1" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="20" t="s">
         <v>99</v>
@@ -2676,7 +2676,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
         <v>30</v>
@@ -2687,7 +2687,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="20" t="s">
         <v>32</v>
@@ -2698,14 +2698,14 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="20" t="s">
         <v>102</v>
@@ -2714,14 +2714,14 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>3</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20" t="s">
         <v>100</v>
@@ -2741,14 +2741,14 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>101</v>
@@ -2757,19 +2757,19 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2791,20 +2791,20 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.765625" style="13"/>
+    <col min="1" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="24"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="20" t="s">
         <v>103</v>
@@ -2824,14 +2824,14 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="20">
         <v>0</v>
@@ -2842,7 +2842,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="20">
         <v>1</v>
@@ -2853,14 +2853,14 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="20" t="s">
         <v>104</v>
@@ -2869,14 +2869,14 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>2</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>105</v>
@@ -2896,18 +2896,18 @@
       <c r="D13" s="20"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -2930,9 +2930,9 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -2962,9 +2962,9 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2972,12 +2972,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2985,12 +2985,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -3013,129 +3013,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="46"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/qa/06.规范模板/GM指令.xlsx
+++ b/qa/06.规范模板/GM指令.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35505" windowHeight="19605" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35505" windowHeight="19605" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="150">
   <si>
     <t>目录</t>
   </si>
@@ -665,6 +665,13 @@
   </si>
   <si>
     <t>setpass 1|0 副本id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthrefresh</t>
+  </si>
+  <si>
+    <t>月刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1625,8 +1632,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1738,12 +1745,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>3</v>
       </c>
@@ -1751,31 +1758,36 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="43" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>4</v>
       </c>
@@ -1783,17 +1795,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>5</v>
       </c>
@@ -2958,7 +2970,7 @@
   </sheetPr>
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
